--- a/288-remettre-le-lien-avec-les-nos-104/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/288-remettre-le-lien-avec-les-nos-104/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T13:36:35+00:00</t>
+    <t>2025-02-21T13:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
